--- a/data/providers-nodes.xlsx
+++ b/data/providers-nodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\innovalab\harmonize\harmonize-dashboard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edson\OneDrive\Documentos\GitHub\harmonize-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB6FDAF-CBB4-4760-8B07-699D6A688BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E4FA23-2F63-40BF-BE6C-5DE11585A7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1073" yWindow="1073" windowWidth="16200" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>SENAMHI</t>
   </si>
@@ -65,13 +65,28 @@
   </si>
   <si>
     <t>Demographics</t>
+  </si>
+  <si>
+    <t>ONERN</t>
+  </si>
+  <si>
+    <t>INGEMMET</t>
+  </si>
+  <si>
+    <t>MINEM</t>
+  </si>
+  <si>
+    <t>SINADEF</t>
+  </si>
+  <si>
+    <t>PCM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -82,6 +97,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -105,9 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -326,15 +350,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -342,7 +366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -350,7 +374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -358,7 +382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -366,7 +390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -374,7 +398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -382,7 +406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -390,7 +414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -398,7 +422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -406,7 +430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -414,7 +438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -422,9 +446,46 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
